--- a/hsl-8687.xlsx
+++ b/hsl-8687.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF4625-0497-4FCD-A765-CFF3A0C41628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAA151D-AFEA-4295-A933-6F952698E637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1013" yWindow="2573" windowWidth="15247" windowHeight="11647" xr2:uid="{E166E32D-432C-4BF3-BADA-3AD5F4E691B7}"/>
+    <workbookView xWindow="1688" yWindow="3247" windowWidth="15247" windowHeight="11648" xr2:uid="{E166E32D-432C-4BF3-BADA-3AD5F4E691B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="Standard" sheetId="1" r:id="rId1"/>
+    <sheet name="Asd" sheetId="3" r:id="rId2"/>
+    <sheet name="Mapping" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
   <si>
     <t>Naam</t>
   </si>
@@ -178,22 +179,570 @@
     <t>7400 (Asd4b)</t>
   </si>
   <si>
+    <t>15a</t>
+  </si>
+  <si>
+    <t>14b</t>
+  </si>
+  <si>
+    <t>15b</t>
+  </si>
+  <si>
+    <t>13b</t>
+  </si>
+  <si>
+    <t>13a</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>Zd</t>
+  </si>
+  <si>
+    <t>IC Zd</t>
+  </si>
+  <si>
+    <t>Spr/IC Zd</t>
+  </si>
+  <si>
+    <t>IC Hlm</t>
+  </si>
+  <si>
+    <t>Spr Hlm</t>
+  </si>
+  <si>
+    <t>&lt; &gt;</t>
+  </si>
+  <si>
+    <t>Spr Shl</t>
+  </si>
+  <si>
+    <t>IC Shl</t>
+  </si>
+  <si>
+    <t>Wp</t>
+  </si>
+  <si>
+    <t>IC Wp</t>
+  </si>
+  <si>
+    <t>Spr Wp</t>
+  </si>
+  <si>
+    <t>IC/Spr Wp</t>
+  </si>
+  <si>
+    <t>Asa</t>
+  </si>
+  <si>
+    <t>Spr Asa</t>
+  </si>
+  <si>
+    <t>IC/Spr Asa</t>
+  </si>
+  <si>
+    <t>Int Shl</t>
+  </si>
+  <si>
+    <t>Int Asa</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>Shl</t>
+  </si>
+  <si>
+    <t>Wgm?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2b
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800 &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>900 &gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt; 100
+&lt; 700
+&lt; 1600</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt; 2100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4b
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2300 &lt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; 800</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; 900</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4000 &lt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7b
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt; 2600
+&lt;&gt; 2700</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt; 4800</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt; 5000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt; 5400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>700 &gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11b
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5700 &lt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5800 &lt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5b
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1800 &lt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2900 &lt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7300 &lt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt; 4500</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt; 4700</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt; 14500</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt; 14700</t>
+    </r>
+  </si>
+  <si>
     <t>Tabel 31a &lt;?:
-[ ] 4049 &lt; 4038
-[ ] 849
+[x] 4049 &lt; 4038
+[x] 849
 [x] 7349 &lt; 7340
 Tabel 31b &gt;?:
 [x] 7340 &gt;7349</t>
+  </si>
+  <si>
+    <t>Tabel 32a:
+[x] 5747 &lt;5840?
+Tabel 32b:
+[n] 5840
+[n] 2042</t>
+  </si>
+  <si>
+    <t>Tabel 33a:
+Tabel 33b:</t>
+  </si>
+  <si>
+    <t>Tabel 40a:
+[x] 4553
+[x] 2753
+Tabel 40b:
+[x] 4736</t>
+  </si>
+  <si>
+    <t>Tabel 42a:
+Tabel 42b:
+[n] 5434</t>
+  </si>
+  <si>
+    <t>Tabel 81a:
+Tabel 81b:</t>
+  </si>
+  <si>
+    <t>Tabel 71a:
+Tabel 71b:
+[x] 238
+[n] 5736
+[n] 5838
+[n] 5738
+[n] 5840
+[n] 2042</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -237,6 +786,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -553,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5997EB3C-7CBF-4D32-9366-4C91B5A5CFC1}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -563,7 +1134,7 @@
     <col min="2" max="2" width="20.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,33 +1165,51 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
@@ -634,62 +1223,64 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -721,6 +1312,345 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA2915F-56F6-4BC6-B5BB-146E9D17E328}">
+  <dimension ref="B2:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="5"/>
+    <col min="2" max="2" width="9.06640625" style="9"/>
+    <col min="3" max="3" width="9.06640625" style="10"/>
+    <col min="4" max="4" width="9.06640625" style="6"/>
+    <col min="5" max="5" width="9.06640625" style="10"/>
+    <col min="6" max="6" width="9.06640625" style="9"/>
+    <col min="7" max="16384" width="9.06640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D4" s="7"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D8" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D17" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D19" s="7"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="D24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667F61F9-2DF3-48D3-B79D-798D8B58F6AA}">
   <dimension ref="A1:D12"/>
   <sheetViews>
